--- a/dtpu_configurations/only_integer16/80mhz/mxu_18x18/power.xlsx
+++ b/dtpu_configurations/only_integer16/80mhz/mxu_18x18/power.xlsx
@@ -175,22 +175,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.04456528276205063</v>
+        <v>0.04792813956737518</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.021028464660048485</v>
+        <v>0.02637087181210518</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.012747544795274734</v>
+        <v>0.014985552988946438</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.007234875112771988</v>
+        <v>0.006959357298910618</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>5.483633140102029E-4</v>
+        <v>8.878824883140624E-4</v>
       </c>
       <c r="G2" t="n" s="4">
-        <v>0.0011956351809203625</v>
+        <v>0.0011897289659827948</v>
       </c>
       <c r="H2" t="n" s="4">
         <v>0.0014924227725714445</v>
@@ -199,10 +199,10 @@
         <v>1.2604483366012573</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12777139246463776</v>
+        <v>0.12786182761192322</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4770424365997314</v>
+        <v>1.4881341457366943</v>
       </c>
     </row>
   </sheetData>
